--- a/数据整理/stocks/A股/创业板/300138-晨光生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300138-晨光生物.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,31 +22,49 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>400023</t>
+  </si>
+  <si>
     <t>002068</t>
   </si>
   <si>
-    <t>400023</t>
+    <t>东方多策略灵活配置混合A</t>
   </si>
   <si>
     <t>东方多策略灵活配置混合C</t>
   </si>
   <si>
-    <t>东方多策略灵活配置混合A</t>
+    <t>0.80</t>
+  </si>
+  <si>
+    <t>0.65</t>
   </si>
   <si>
     <t>88.25</t>
   </si>
   <si>
     <t>2.38</t>
+  </si>
+  <si>
+    <t>0.0190</t>
+  </si>
+  <si>
+    <t>0.0155</t>
   </si>
 </sst>
 </file>
@@ -404,13 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,44 +444,62 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3">
         <v>6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300138-晨光生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300138-晨光生物.xlsx
@@ -1,102 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2020-Q4" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>400023</t>
-  </si>
-  <si>
-    <t>002068</t>
-  </si>
-  <si>
-    <t>东方多策略灵活配置混合A</t>
-  </si>
-  <si>
-    <t>东方多策略灵活配置混合C</t>
-  </si>
-  <si>
-    <t>0.80</t>
-  </si>
-  <si>
-    <t>0.65</t>
-  </si>
-  <si>
-    <t>88.25</t>
-  </si>
-  <si>
-    <t>2.38</t>
-  </si>
-  <si>
-    <t>0.0190</t>
-  </si>
-  <si>
-    <t>0.0155</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -119,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -421,89 +446,303 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011180</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300138-晨光生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300138-晨光生物.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -745,4 +746,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011180</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300138-晨光生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300138-晨光生物.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -878,4 +879,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300138-晨光生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300138-晨光生物.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -887,7 +888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -898,17 +899,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -918,14 +939,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.02</v>
+          <t>003840</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>30.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -934,14 +977,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.05</v>
+          <t>003839</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>30.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -950,13 +1015,173 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011180</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300138-晨光生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300138-晨光生物.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1096,7 +1097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1107,17 +1108,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1127,14 +1148,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.11</v>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1722</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1143,14 +1186,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.02</v>
+          <t>010744</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信灵动价值混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3674</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1159,14 +1224,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.05</v>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3293</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1175,13 +1262,493 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>003839</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>32.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1754</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>481008</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003882</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>28.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003883</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>28.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003840</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>32.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010745</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信灵动价值混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011180</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006538</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东海核心价值精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300138-晨光生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300138-晨光生物.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1647,7 +1648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1658,17 +1659,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1678,14 +1699,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.34</v>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3136</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1694,14 +1737,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.11</v>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0935</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1710,14 +1775,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.02</v>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1726,14 +1813,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.05</v>
+          <t>010998</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博道消费智航股票型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1742,13 +1851,281 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011500</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>九泰量化新兴产业混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011180</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300138-晨光生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300138-晨光生物.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,129 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>400023</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方多策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>88.25</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0190</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.57</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002068</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>东方多策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.25</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0155</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -588,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -639,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002258</t>
+          <t>004350</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大成国企改革灵活配置混合</t>
+          <t>汇丰晋信价值先锋股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>9.83</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.34</t>
+          <t>93.81</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0416</t>
+          <t>0.3136</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -677,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011179</t>
+          <t>007831</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>浙商智选食品饮料股票A</t>
+          <t>博道伍佰智航股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>8.82</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.15</t>
+          <t>93.09</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.74</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0075</t>
+          <t>0.0935</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -715,35 +715,225 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010998</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博道消费智航股票型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011500</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>九泰量化新兴产业混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>011180</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>浙商智选食品饮料股票C</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>85.15</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.74</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>5</v>
       </c>
     </row>
@@ -758,7 +948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -779,7 +969,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -809,36 +999,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011179</t>
+          <t>003961</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>浙商智选食品饮料股票A</t>
+          <t>易方达瑞程灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>34.99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.51</t>
+          <t>91.05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.67</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0130</t>
+          <t>1.1722</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -847,36 +1037,454 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>010744</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信灵动价值混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3674</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3293</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003839</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>32.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1754</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>481008</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003882</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>28.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003883</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>28.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003840</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>32.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010745</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信灵动价值混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>011180</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>浙商智选食品饮料股票C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.51</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0051</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006538</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东海核心价值精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1098,7 +1706,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1119,7 +1727,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1149,36 +1757,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003961</t>
+          <t>011179</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达瑞程灵活配置混合A</t>
+          <t>浙商智选食品饮料股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>34.99</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.05</t>
+          <t>93.51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>5.67</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1722</t>
+          <t>0.0130</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1187,454 +1795,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010744</t>
+          <t>011180</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银瑞信灵动价值混合A</t>
+          <t>浙商智选食品饮料股票C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15.18</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>76.76</t>
+          <t>93.51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>5.67</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3674</t>
+          <t>0.0051</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>003962</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>易方达瑞程灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9.83</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.05</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3293</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003839</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达瑞通灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>9.33</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>32.04</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1754</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>481008</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>工银大盘蓝筹混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>76.34</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0917</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>003882</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>易方达瑞弘灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>6.90</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>28.58</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0904</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
         <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>003883</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>易方达瑞弘灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>28.58</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0265</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>003840</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>易方达瑞通灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>32.04</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0259</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010745</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>工银瑞信灵动价值混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>76.76</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0244</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>011179</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>浙商智选食品饮料股票A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>91.35</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>8.07</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0178</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>519987</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>长信恒利优势混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>82.39</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0108</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>011180</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>浙商智选食品饮料股票C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>91.35</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>8.07</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0040</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>006538</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>东海核心价值精选混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>89.24</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1648,7 +1838,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1669,7 +1859,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1699,36 +1889,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004350</t>
+          <t>002258</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇丰晋信价值先锋股票</t>
+          <t>大成国企改革灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.83</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.81</t>
+          <t>85.34</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3136</t>
+          <t>0.0416</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1737,36 +1927,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007831</t>
+          <t>011179</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博道伍佰智航股票A</t>
+          <t>浙商智选食品饮料股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.82</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>85.15</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0935</t>
+          <t>0.0075</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1775,225 +1965,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007832</t>
+          <t>011180</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博道伍佰智航股票C</t>
+          <t>浙商智选食品饮料股票C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.44</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>85.15</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0577</t>
+          <t>0.0006</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010998</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博道消费智航股票型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.09</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0439</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011179</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>浙商智选食品饮料股票A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.48</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8.45</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0186</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007903</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>长城量化小盘股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.43</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0168</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>011500</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>九泰量化新兴产业混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.57</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0166</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>011180</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>浙商智选食品饮料股票C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.48</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>8.45</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0059</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2008,128 +2008,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.57</v>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.34</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.03</v>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300138-晨光生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300138-晨光生物.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>0.57</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>2.34</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>0.11</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -583,6 +600,594 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010744</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银灵动价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3048</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2076</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>481008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>66.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>481013</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>70.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>920008</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010745</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银灵动价值混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>75.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>920928</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011180</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015364</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011475</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>70.46</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -942,7 +1547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1492,7 +2097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1700,7 +2305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1832,7 +2437,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2002,7 +2607,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300138-晨光生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300138-晨光生物.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>0.86</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>0.57</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>2.34</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>0.11</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -600,6 +617,746 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>013910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴业兴睿两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1594</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013911</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴业兴睿两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6153</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010744</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银灵动价值混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3048</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1997</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004738</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根安隆回报混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>23.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0949</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001651</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银新蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>481013</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004823</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>36.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004824</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>36.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004739</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上投摩根安隆回报混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>23.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010745</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银灵动价值混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011476</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银新蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>77.68</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011180</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015364</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011475</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>77.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1187,7 +1944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1547,7 +2304,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2097,7 +2854,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2305,7 +3062,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2437,7 +3194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2607,7 +3364,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
